--- a/data/trans_camb/P14B23-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Estudios-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>-1.135912550184771</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8745156783334416</v>
+        <v>0.8745156783334401</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.11214761330658</v>
+        <v>-3.328743240804118</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3996919640788946</v>
+        <v>0.346251077377296</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.025967785747644</v>
+        <v>-3.839324880202605</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.185457567284049</v>
+        <v>-3.634765792497489</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.104985693017371</v>
+        <v>-3.128461605406935</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.9450053090018996</v>
+        <v>-0.9958978931410827</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8011750231121477</v>
+        <v>0.7300147821784007</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.47292650916282</v>
+        <v>5.304178305036193</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.908555087309786</v>
+        <v>2.053512276615591</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.164638421927898</v>
+        <v>1.970140288089166</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8492374265591005</v>
+        <v>0.8260470887919826</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.89027824188101</v>
+        <v>2.862671681264086</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>-0.1131321881149993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08709814167881309</v>
+        <v>0.08709814167881297</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.550636922616608</v>
+        <v>-0.5875593386909164</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04846978730031684</v>
+        <v>0.06371133449357159</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2622555604474048</v>
+        <v>-0.2501756124668711</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2066074956882264</v>
+        <v>-0.2297712963534118</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2817268866638363</v>
+        <v>-0.2865801543414977</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08871689969011472</v>
+        <v>-0.09319477292306952</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2368593219226254</v>
+        <v>0.2219186237103281</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.452181240027309</v>
+        <v>1.4766128864097</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1478505044152839</v>
+        <v>0.1630201452502735</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1680675490914683</v>
+        <v>0.1624710284141047</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09373256037972731</v>
+        <v>0.08862088096558687</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3130754264192745</v>
+        <v>0.3095217900085236</v>
       </c>
     </row>
     <row r="10">
@@ -772,19 +772,19 @@
         <v>-0.06883846879134486</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.236748173792381</v>
+        <v>1.23674817379238</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.07709270931203632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.196111962266788</v>
+        <v>2.196111962266786</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.01892909220848546</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.776845367805931</v>
+        <v>1.776845367805932</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.046781956805334</v>
+        <v>-0.9478733914924039</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1503886205100825</v>
+        <v>0.2304297991180667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.523061157589074</v>
+        <v>-1.501626782024275</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6797452206747435</v>
+        <v>0.7551461857826749</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8815596736284323</v>
+        <v>-0.8820426382527646</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8474542102783313</v>
+        <v>0.8759278303049831</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8274799226134681</v>
+        <v>0.7854361751745395</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.203807192956157</v>
+        <v>2.298536816843931</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.417320383634921</v>
+        <v>1.460787558249044</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.543541677361175</v>
+        <v>3.691360910458297</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8620679937199029</v>
+        <v>0.8061336001465672</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.730986645430539</v>
+        <v>2.643858675914213</v>
       </c>
     </row>
     <row r="13">
@@ -850,19 +850,19 @@
         <v>-0.03590342321200123</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.64503894217822</v>
+        <v>0.6450389421782196</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.01524496444350324</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.4342777556720554</v>
+        <v>0.4342777556720551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.005568755166648016</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5227306578319832</v>
+        <v>0.5227306578319835</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4356292596404739</v>
+        <v>-0.4023686280990454</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.05257097690377523</v>
+        <v>0.08118235632088773</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2660762175423659</v>
+        <v>-0.2620510307832208</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1076478476618355</v>
+        <v>0.1188521332874849</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2303933955924786</v>
+        <v>-0.2282175768089635</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2130703238998192</v>
+        <v>0.221224072370443</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6000849652969827</v>
+        <v>0.579070288153305</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.501160952338032</v>
+        <v>1.617879700049578</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3232637651095188</v>
+        <v>0.3461337616339523</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8264616373895982</v>
+        <v>0.8822052398931584</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2962828390300973</v>
+        <v>0.2690802286872833</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.932158479354983</v>
+        <v>0.9018066203207946</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>-0.1509662804168329</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.45960382420038</v>
+        <v>2.459603824200379</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.465280021993618</v>
+        <v>-1.593536827121174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9242483198388872</v>
+        <v>0.9748226021297218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.262769722447168</v>
+        <v>-2.18290553054198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1835741848066337</v>
+        <v>0.3195628770228832</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.297416493652678</v>
+        <v>-1.212267887121496</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.092932159207753</v>
+        <v>1.176891025053108</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7204417327944597</v>
+        <v>0.7165913840605169</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.579927604380276</v>
+        <v>4.506235889057524</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.315371089972103</v>
+        <v>1.359077196421869</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.112124249487058</v>
+        <v>4.190676591768297</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7403575297168724</v>
+        <v>0.7909828543634064</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.642461513209842</v>
+        <v>3.642662338150816</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>-0.1203321725610272</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4.256777619885422</v>
+        <v>4.256777619885421</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.1408542881668522</v>
@@ -1022,7 +1022,7 @@
         <v>-0.1241904394080432</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.023360970766088</v>
+        <v>2.023360970766087</v>
       </c>
     </row>
     <row r="20">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>0.007782702950230952</v>
+        <v>-0.02377271764217162</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.74698461329827</v>
+        <v>-0.7649471010552784</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.002044140654207478</v>
+        <v>-0.02744023263150934</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7108976654876945</v>
+        <v>-0.6543164243621131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4480085600048875</v>
+        <v>0.484955176721872</v>
       </c>
     </row>
     <row r="21">
@@ -1059,16 +1059,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>1.575080596665797</v>
+        <v>1.692581272054904</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.338324948178616</v>
+        <v>4.971057096068444</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.305748840235138</v>
+        <v>1.359262877906139</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.834010854573636</v>
+        <v>5.423745889730572</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>-0.8906628955238493</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.6834251610247102</v>
+        <v>0.6834251610247123</v>
       </c>
     </row>
     <row r="23">
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.339430158807338</v>
+        <v>-1.268631082735767</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4081170934881034</v>
+        <v>0.5532151374686004</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.566262905320091</v>
+        <v>-2.649022651149727</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.232961422280262</v>
+        <v>-1.076055347083603</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.699201166987727</v>
+        <v>-1.771639077128272</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.08353618057380459</v>
+        <v>-0.0002549328216621347</v>
       </c>
     </row>
     <row r="24">
@@ -1135,22 +1135,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1503694276014249</v>
+        <v>0.2052177518166056</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.223979771145368</v>
+        <v>2.293469671451806</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.09068793464386626</v>
+        <v>-0.04709858952368381</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.184717255524801</v>
+        <v>1.196884495291352</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1388383251960066</v>
+        <v>-0.1869286072899003</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.490735576398853</v>
+        <v>1.520099043826957</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>-0.1679877258878885</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1289006639796985</v>
+        <v>0.128900663979699</v>
       </c>
     </row>
     <row r="26">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4414182752664244</v>
+        <v>-0.4339258849390191</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1436406132994977</v>
+        <v>0.1873444785871625</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2938050559245512</v>
+        <v>-0.3029842287639926</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1401015742721325</v>
+        <v>-0.1243242300849224</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2890317251019907</v>
+        <v>-0.3021834640111424</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01650576411238401</v>
+        <v>0.0001377705582409617</v>
       </c>
     </row>
     <row r="27">
@@ -1213,22 +1213,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.07962762920243704</v>
+        <v>0.09504957006597371</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.047509270771711</v>
+        <v>1.131632241467772</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.009390378128223423</v>
+        <v>-0.003717201493334136</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1598406120247419</v>
+        <v>0.1649400766977103</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.02632072977919289</v>
+        <v>-0.03825307345783196</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3048340117902699</v>
+        <v>0.3126712459242088</v>
       </c>
     </row>
     <row r="28">
